--- a/Filo Directory/test.xlsx
+++ b/Filo Directory/test.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\errol\Desktop\ADP Mini Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E065E6-3EFF-43FB-BB93-EAEEA0FB7A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="124519"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <s:workbookPr defaultThemeVersion="124226" codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>SL NO</t>
   </si>
@@ -50,13 +45,29 @@
   </si>
   <si>
     <t>WIND SPEED</t>
+  </si>
+  <si>
+    <t>mumbai</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>haze</t>
+  </si>
+  <si>
+    <t>goa</t>
+  </si>
+  <si>
+    <t>clear sky</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,11 +76,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,8 +104,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" xfId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" xfId="0" borderId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -103,14 +114,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -434,24 +437,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="A2:J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
   <cols>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col width="11.88671875" customWidth="1" min="3" max="3"/>
+    <col width="14.21875" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12.88671875" customWidth="1" min="7" max="7"/>
+    <col width="11.6640625" customWidth="1" min="8" max="8"/>
+    <col width="14.88671875" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,10 +487,138 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19.0144</v>
+      </c>
+      <c r="D2" t="n">
+        <v>72.8479</v>
+      </c>
+      <c r="E2" t="n">
+        <v>299.14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1014</v>
+      </c>
+      <c r="G2" t="n">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15.3333</v>
+      </c>
+      <c r="D3" t="n">
+        <v>74.08329999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>301.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1015</v>
+      </c>
+      <c r="G3" t="n">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15.3333</v>
+      </c>
+      <c r="D4" t="n">
+        <v>74.08329999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>301.16</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1015</v>
+      </c>
+      <c r="G4" t="n">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15.3333</v>
+      </c>
+      <c r="D5" t="n">
+        <v>74.08329999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>300.36</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1013</v>
+      </c>
+      <c r="G5" t="n">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Filo Directory/test.xlsx
+++ b/Filo Directory/test.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <s:workbookPr defaultThemeVersion="124226" codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\errol\Desktop\ADP Mini Project\Filo Directory\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA031DF0-2142-42A6-A3EC-4CF70C976132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SL NO</t>
   </si>
@@ -45,29 +50,13 @@
   </si>
   <si>
     <t>WIND SPEED</t>
-  </si>
-  <si>
-    <t>mumbai</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>haze</t>
-  </si>
-  <si>
-    <t>goa</t>
-  </si>
-  <si>
-    <t>clear sky</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,11 +65,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,8 +93,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" xfId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" xfId="0" borderId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -114,6 +103,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -437,27 +434,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="A2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="11.88671875" customWidth="1" min="3" max="3"/>
-    <col width="14.21875" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="12.88671875" customWidth="1" min="7" max="7"/>
-    <col width="11.6640625" customWidth="1" min="8" max="8"/>
-    <col width="14.88671875" customWidth="1" min="10" max="10"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,138 +481,10 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>19.0144</v>
-      </c>
-      <c r="D2" t="n">
-        <v>72.8479</v>
-      </c>
-      <c r="E2" t="n">
-        <v>299.14</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1014</v>
-      </c>
-      <c r="G2" t="n">
-        <v>73</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="n">
-        <v>15.3333</v>
-      </c>
-      <c r="D3" t="n">
-        <v>74.08329999999999</v>
-      </c>
-      <c r="E3" t="n">
-        <v>301.16</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1015</v>
-      </c>
-      <c r="G3" t="n">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="n">
-        <v>15.3333</v>
-      </c>
-      <c r="D4" t="n">
-        <v>74.08329999999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>301.16</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1015</v>
-      </c>
-      <c r="G4" t="n">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15.3333</v>
-      </c>
-      <c r="D5" t="n">
-        <v>74.08329999999999</v>
-      </c>
-      <c r="E5" t="n">
-        <v>300.36</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1013</v>
-      </c>
-      <c r="G5" t="n">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>